--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25046\Desktop\TOD\ET_HollowKnight\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AC9A67-C1CB-46C3-A31F-7A5A6E3A3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C273A9-1773-4AE9-8C36-F8EAAC5C54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AB包名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,7 +70,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>mai</t>
+    <t>Knight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>knight</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,11 +161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -477,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K15"/>
+  <dimension ref="C1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -498,12 +494,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
@@ -512,9 +505,6 @@
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
@@ -529,15 +519,15 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
@@ -550,15 +540,15 @@
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
@@ -571,15 +561,15 @@
       <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
@@ -588,64 +578,22 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25046\Desktop\TOD\ET_HollowKnight\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C273A9-1773-4AE9-8C36-F8EAAC5C54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47C1B8-590B-43D4-8B1D-DF5BE757E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>knight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celika</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>celika</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +484,7 @@
   <dimension ref="C1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -587,6 +595,18 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25046\Desktop\TOD\ET_HollowKnight\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47C1B8-590B-43D4-8B1D-DF5BE757E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB7F3C7-7722-4DE9-BEC8-5176B16B3DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>celika</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skye</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skye</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +492,7 @@
   <dimension ref="C1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -610,6 +618,18 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25046\Desktop\TOD\ET_HollowKnight\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB7F3C7-7722-4DE9-BEC8-5176B16B3DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D669D1-25C0-4735-B9F4-C3B5F47A4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="2565" windowWidth="17115" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>#</t>
   </si>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>skye</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoniex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoniex</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -491,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -633,6 +641,18 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25046\Desktop\TOD\ET_HollowKnight\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D669D1-25C0-4735-B9F4-C3B5F47A4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D837F3E-92C4-4B69-AE9C-208054B7F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="2565" windowWidth="17115" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Knight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>knight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Celika</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -99,6 +91,14 @@
   </si>
   <si>
     <t>phoniex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ragna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ragna</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="C1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -603,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -648,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4"/>
     </row>
